--- a/Data/EC/NIT-9017555292.xlsx
+++ b/Data/EC/NIT-9017555292.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CE6CAD-2D00-4CE0-8672-6F93AB6D857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{559E4B55-D3C2-4BAB-A6CE-3D9BED8E30C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E804D8F-6A5D-491E-8312-2DFF7D50C209}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09B470CF-9B6A-44E4-80CD-190D8E4108F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,67 +65,70 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143386247</t>
+  </si>
+  <si>
+    <t>YEINER SIMARRA SALCEDO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1050945985</t>
+  </si>
+  <si>
+    <t>ELMER LOPEZ DIAZ</t>
+  </si>
+  <si>
     <t>1005649919</t>
   </si>
   <si>
     <t>JULIAN DAVID CASTILLA GAMARRA</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1143386247</t>
-  </si>
-  <si>
-    <t>YEINER SIMARRA SALCEDO</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
     <t>1042580370</t>
   </si>
   <si>
     <t>YERITH FABIAN CONTRERAS TORRALVO</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1050945985</t>
-  </si>
-  <si>
-    <t>ELMER LOPEZ DIAZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8E2875-62A2-5F5B-7665-BF13F1F870CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF989820-989A-7F1C-FA0F-C4B82F9D5870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593B806-66E2-4DDF-B26D-F8BD3261BC0C}">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6C147F-F8E4-493C-BE23-C5E48AC6AC4C}">
+  <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -915,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -992,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2104000</v>
+        <v>2320000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1045,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1082,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1105,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1174,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1197,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1220,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1243,13 +1246,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1272,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1289,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1318,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1335,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1364,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1381,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1404,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1427,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1473,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1496,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1519,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1542,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1565,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1588,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1611,13 +1614,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1634,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1657,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1680,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1703,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1726,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1749,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1772,13 +1775,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1795,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1818,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1841,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1864,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1887,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1910,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -1933,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -1952,56 +1955,148 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="22" t="s">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G55" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
+      <c r="D55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017555292.xlsx
+++ b/Data/EC/NIT-9017555292.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559E4B55-D3C2-4BAB-A6CE-3D9BED8E30C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D63B3B3-D393-456C-BD73-9F241653DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09B470CF-9B6A-44E4-80CD-190D8E4108F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1BEB32A2-B285-4770-B2EF-D85AF8833B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,64 +71,67 @@
     <t>YEINER SIMARRA SALCEDO</t>
   </si>
   <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1005649919</t>
+  </si>
+  <si>
+    <t>JULIAN DAVID CASTILLA GAMARRA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1042580370</t>
+  </si>
+  <si>
+    <t>YERITH FABIAN CONTRERAS TORRALVO</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1050945985</t>
+  </si>
+  <si>
+    <t>ELMER LOPEZ DIAZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1050945985</t>
-  </si>
-  <si>
-    <t>ELMER LOPEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1005649919</t>
-  </si>
-  <si>
-    <t>JULIAN DAVID CASTILLA GAMARRA</t>
-  </si>
-  <si>
-    <t>1042580370</t>
-  </si>
-  <si>
-    <t>YERITH FABIAN CONTRERAS TORRALVO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -227,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF989820-989A-7F1C-FA0F-C4B82F9D5870}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962A8CDA-A730-D7CD-5FEB-322ECB0DC804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6C147F-F8E4-493C-BE23-C5E48AC6AC4C}">
-  <dimension ref="B2:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30033C2-7532-42CF-924F-12D2A888300B}">
+  <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -918,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2320000</v>
+        <v>2536000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1048,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1085,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1114,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1131,10 +1134,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1177,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1200,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1246,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1269,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1298,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1315,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1338,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1367,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1384,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1407,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1430,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1453,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1476,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1499,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1522,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1545,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1568,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1591,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1614,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1637,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1660,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1683,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1706,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1729,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E45" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1752,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1775,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1798,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1821,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1844,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1867,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1890,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1913,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1936,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -1959,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -1982,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2005,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2028,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2047,56 +2050,148 @@
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="23" t="s">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
+      <c r="F59" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="H65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="C69" s="32"/>
+      <c r="H69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
